--- a/Points.xlsx
+++ b/Points.xlsx
@@ -365,8 +365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,13 +474,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>6</v>
